--- a/data/hotels_by_city/Denver/Denver_shard_215.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_215.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33691-d120065-Reviews-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,1561 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r574908022-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>120065</t>
+  </si>
+  <si>
+    <t>574908022</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>We stayed multiple nights. Rooms was clean and bed was comfortable. We had a nice view from the room.Overall stay was good and surrounding location was great with nearby flatiron mall and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r572022726-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>572022726</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>quiet and good location</t>
+  </si>
+  <si>
+    <t>Needed a very quiet hotel for a good night sleep.  Came in after midnight and room was very quiet until around 7 when people about us started walking around.  Breakfast is your standard.  Nothing outstanding but still good.will stay here again</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r557910671-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>557910671</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Clean Hotel</t>
+  </si>
+  <si>
+    <t>Friendly staff and good Internet. Location was nice to get to Denver and housekeeping did a good job cleaning rooms. Hot breakfast was like any other hotel, but still fresh and hot. Only 25 minutes to downtown Denver.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r531966979-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>531966979</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Construction in area, not the best location at this time!</t>
+  </si>
+  <si>
+    <t>Booked a night here but a struggle getting to the hotel.  Google maps doesn't realize the road is blocked accept from the north direction.  Had to figure it out, tons of traffic and delay, a real mess.  Road noise from the highway is really loud.  Staff polite, hotel is a bit dated and price reasonable but needs to be a bit lower due to the total inconvenience of getting in and out.  Clean and comfy bed, just really needs an upgrade.  Breakfast area is really small and probably worse due to two guys both obviously sick, coughing, snorting and hacking while I tried to eat, finally had to just leave.  Realize the hotel can't do anything about the construction or the inconsiderate sick guys, but alternative seating maybe some high-tops in the lobby, and sending a note to guests ahead of time that the only way in is to bypass, make a u-turn, etc. and then offer an inconvenience rate!  Just one of those stays ready to move on from!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Booked a night here but a struggle getting to the hotel.  Google maps doesn't realize the road is blocked accept from the north direction.  Had to figure it out, tons of traffic and delay, a real mess.  Road noise from the highway is really loud.  Staff polite, hotel is a bit dated and price reasonable but needs to be a bit lower due to the total inconvenience of getting in and out.  Clean and comfy bed, just really needs an upgrade.  Breakfast area is really small and probably worse due to two guys both obviously sick, coughing, snorting and hacking while I tried to eat, finally had to just leave.  Realize the hotel can't do anything about the construction or the inconsiderate sick guys, but alternative seating maybe some high-tops in the lobby, and sending a note to guests ahead of time that the only way in is to bypass, make a u-turn, etc. and then offer an inconvenience rate!  Just one of those stays ready to move on from!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r526641966-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>526641966</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t>Stayed there on night. The front end were helpful, and the room was clean and comfortable. Our room was accessible and the only problem with the bathroom was there was no hand held shower, only an overhead fixed shower. This made showering for my wife, who is mobility handicapped extremely difficult.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r475933583-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>475933583</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Friendly and Clean Stay</t>
+  </si>
+  <si>
+    <t>Staff at this hotel were professional and friendly. Made you feel welcomed. Despite being older hotel room was modern and hot breakfast was very tasty. Room was also very clean.Hope to stay again when visiting.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r466155635-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>466155635</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Very clean!</t>
+  </si>
+  <si>
+    <t>Our family enjoyed our visit to this Quality Inn. I was impressed by how new everything seemed to be. The indoor pool was wonderful as well as the hot tub. The breakfast bar was amazing. The price was quite reasonable and it is quite convenient for the north of Denver. You will not be disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Quality Inn Den... W, General Manager at Quality Inn Denver Westminster, responded to this reviewResponded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Our family enjoyed our visit to this Quality Inn. I was impressed by how new everything seemed to be. The indoor pool was wonderful as well as the hot tub. The breakfast bar was amazing. The price was quite reasonable and it is quite convenient for the north of Denver. You will not be disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r466031733-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>466031733</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>At check in the staff was helpful in finding our way around. The place felt very clean as well as the room. Room was spacious with queen beds with fridge. Hot breakfast was the normal breakfast you find anywhere, but still good. The Internet was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>At check in the staff was helpful in finding our way around. The place felt very clean as well as the room. Room was spacious with queen beds with fridge. Hot breakfast was the normal breakfast you find anywhere, but still good. The Internet was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r439173210-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>439173210</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>This hotel was alright. The bed was firm, almost too firm for me but ended up being alright for two nights worth of sleeping.The microwave looks ancient but the mini fridge is newer. The bathtub tile has some black mildew on it which was unappealing during what I hoped would be a relaxing bath.The entrance faces Hwy 36 so there is road noise. If you sleep with the air on high then it all blends in. If you don't sleep with. The air on then be prepared to hear a lot of road noise.The breakfast is, oddly, the highlight. They have scrambled eggs and bacon. There are also two different flavors of waffle batter for the waffle maker. They have a variety of cereals, bagels, muffins, danishes, yogurt cups and bananas. You can choose from tea, coffee, and a myriad of juices. It is clean and the employee is constantly coming back in to wipe surfaces down and ensure everything is still stocked.I would return again because the price is great for what you get. If you are looking for plush beds with luxurious linens, then this place isn't for you. If you want a decently comfortable bed with comfortable lines and a fair price for it, this is the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was alright. The bed was firm, almost too firm for me but ended up being alright for two nights worth of sleeping.The microwave looks ancient but the mini fridge is newer. The bathtub tile has some black mildew on it which was unappealing during what I hoped would be a relaxing bath.The entrance faces Hwy 36 so there is road noise. If you sleep with the air on high then it all blends in. If you don't sleep with. The air on then be prepared to hear a lot of road noise.The breakfast is, oddly, the highlight. They have scrambled eggs and bacon. There are also two different flavors of waffle batter for the waffle maker. They have a variety of cereals, bagels, muffins, danishes, yogurt cups and bananas. You can choose from tea, coffee, and a myriad of juices. It is clean and the employee is constantly coming back in to wipe surfaces down and ensure everything is still stocked.I would return again because the price is great for what you get. If you are looking for plush beds with luxurious linens, then this place isn't for you. If you want a decently comfortable bed with comfortable lines and a fair price for it, this is the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r403898470-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>403898470</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Room very comfortable, clean, bed was comfortable, nice pillows.  Breakfast choices very nice.  Hot breakfast......staff very friendly.  Wish the breakfast room was larger though.  The maids were very friendly in the morning.  Every one of them we met gave us a smile and said "Good Morning".</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r393043611-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>393043611</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Very nice, clean, comfortable hotel. If approaching from west on I-76 / 70, and your GPS tries to take you up Sheridan Blvd. aka Route 95 - ignore it and continue east to the 36 Turnpike aka Denver-Boulder Turnpike. Sheridan Blvd. is awful at all times of day, many lights and huge volume of traffic both north and south. From Route 36 exit Sheridan Blvd., go south to first light (Turnpike Drive). Follow road about a mile and see hotel on left. Lots of well-lit parking surrounds hotel. My King Suite was large, clean, and comfortable. Got a really good nights' sleep, the hotel was very quiet through the night. Price paid fair and average for area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn Den... W, Front Office Manager at Quality Inn Denver Westminster, responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Very nice, clean, comfortable hotel. If approaching from west on I-76 / 70, and your GPS tries to take you up Sheridan Blvd. aka Route 95 - ignore it and continue east to the 36 Turnpike aka Denver-Boulder Turnpike. Sheridan Blvd. is awful at all times of day, many lights and huge volume of traffic both north and south. From Route 36 exit Sheridan Blvd., go south to first light (Turnpike Drive). Follow road about a mile and see hotel on left. Lots of well-lit parking surrounds hotel. My King Suite was large, clean, and comfortable. Got a really good nights' sleep, the hotel was very quiet through the night. Price paid fair and average for area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r392589484-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>392589484</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Stayed for a week</t>
+  </si>
+  <si>
+    <t>Needed a reasonably priced hotel close to Boulder for a week-long softball tournament. We were pleased with our room.  Staying a week with a small child, the fridge, microwave and indoor pool (for the days we didn't go to softball) proved invaluable. My only complaint would be that the refrigerator could have been a little colder.  The breakfast was good and the staff made sure the tables were cleaned promptly and that all the hot items stayed filled up.Another positive;  the indoor pool did not have that yucky chlorine smell that many indoor pools have.Our room was on the freeway side, but the only noise we ever heard was of the occasional train.  The parking lot was well lit, and I had no more concerns about parking there than any other hotel parking lot I've stayed at before.There was coffee available in the lobby every day.Good location, close to everything,MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a reasonably priced hotel close to Boulder for a week-long softball tournament. We were pleased with our room.  Staying a week with a small child, the fridge, microwave and indoor pool (for the days we didn't go to softball) proved invaluable. My only complaint would be that the refrigerator could have been a little colder.  The breakfast was good and the staff made sure the tables were cleaned promptly and that all the hot items stayed filled up.Another positive;  the indoor pool did not have that yucky chlorine smell that many indoor pools have.Our room was on the freeway side, but the only noise we ever heard was of the occasional train.  The parking lot was well lit, and I had no more concerns about parking there than any other hotel parking lot I've stayed at before.There was coffee available in the lobby every day.Good location, close to everything,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r383131043-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>383131043</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Barely Hanging On</t>
+  </si>
+  <si>
+    <t>Spent one weeknight June 2016 on a business trip.  I was a bit nervous about this hotel being rated just about the worst in Westminster, but it was close to where I needed to be, and the price was better than others nearby.  Was also worried about crime in the parking lot based on other reviews.
+Check in was ok.  I asked the girl about the tons of "lock your car, not responsible for theft" signs all over the parking lot.  She said car "break-ins don't happen very often".  Didn't exactly have a calming effect.  There is a bike path that runs along the highway, which is adjacent to the parking lot.  Easy access for thieves to the parking lot, and easy exit to escape into the night.  Quite simply, the hotel needs to put up a fence around the property.  Very simple to do, and the likelihood of theft from vehicles would drop dramatically.  Also, increasing parking lot lighting would help.  There are a fair amount of lights around the parking lot, but they aren't very bright.  If the mgmt. is serious about deterring theft, they need to step their game up.  Better lights and a fence would have a huge impact.
+Anyway, my room was of decent size, but as many others have said in reviews, the furniture was worn out and in need of replacement.  The sofa had several rips and holes in it, doors badly scratched,...Spent one weeknight June 2016 on a business trip.  I was a bit nervous about this hotel being rated just about the worst in Westminster, but it was close to where I needed to be, and the price was better than others nearby.  Was also worried about crime in the parking lot based on other reviews.Check in was ok.  I asked the girl about the tons of "lock your car, not responsible for theft" signs all over the parking lot.  She said car "break-ins don't happen very often".  Didn't exactly have a calming effect.  There is a bike path that runs along the highway, which is adjacent to the parking lot.  Easy access for thieves to the parking lot, and easy exit to escape into the night.  Quite simply, the hotel needs to put up a fence around the property.  Very simple to do, and the likelihood of theft from vehicles would drop dramatically.  Also, increasing parking lot lighting would help.  There are a fair amount of lights around the parking lot, but they aren't very bright.  If the mgmt. is serious about deterring theft, they need to step their game up.  Better lights and a fence would have a huge impact.Anyway, my room was of decent size, but as many others have said in reviews, the furniture was worn out and in need of replacement.  The sofa had several rips and holes in it, doors badly scratched, tiles dirty, etc.  This hotel needs a makeover.The internet was pretty bad.  Other complaints on here seemed to be confirmed.  I tried different modems to no avail.  I'm sure it would be okay if you're just checking email and such, but forget about watching vids and things like that.  I checked the speed several times, and it was horrible.  After lots of problems trying to watch videos, I finally hooked up my laptop to a Wi-Fi hotspot on my phone, and it was a night and day difference.  The Wi-Fi at this hotel sucks, so be warned if it is very important to you.  The TV has a good lineup of channels.  A/C worked good, although I had to take the cover off the unit because the fan was making a horrible noise.  Once I took the cover off, it was fine.Noise wasn't too bad.  Some rumbling around in the hallways during the evening, doors slamming, etc,, but highway noise wasn't bad.  Fortunately I was on the opposite side from the highway though.  Ask for a room away from the highway.In the morning, I went downstairs at about 6:00, and the breakfast room was locked.  There was no coffee available.  I asked the girl at the front desk when the breakfast room opened, and she said 6:30.  I asked why I couldn't get any coffee, and she told me to knock on the door, and someone inside "might" give me some coffee.  I saw a girl in there with headphones on, and of course, she couldn't hear me knocking.  Once I finally got her attention, she told me "I haven't made any yet".  Is there any hotel in the entire country (that offers coffee) that doesn't actually have coffee made at 6 in the morning????  Talk about ridiculous.  I should give the place a poor rating on that alone.  And no breakfast room access until 6:30?  Too bad, so sad if you have to leave a bit earlier I guess.Fortunately, my car didn't get broken into, and there weren't any major screw-ups.  Just lots of little things that need attention.  Nothing memorable about the place.  Just an old hotel that is barely hanging on.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn Den... W, Front Office Manager at Quality Inn Denver Westminster, responded to this reviewResponded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Spent one weeknight June 2016 on a business trip.  I was a bit nervous about this hotel being rated just about the worst in Westminster, but it was close to where I needed to be, and the price was better than others nearby.  Was also worried about crime in the parking lot based on other reviews.
+Check in was ok.  I asked the girl about the tons of "lock your car, not responsible for theft" signs all over the parking lot.  She said car "break-ins don't happen very often".  Didn't exactly have a calming effect.  There is a bike path that runs along the highway, which is adjacent to the parking lot.  Easy access for thieves to the parking lot, and easy exit to escape into the night.  Quite simply, the hotel needs to put up a fence around the property.  Very simple to do, and the likelihood of theft from vehicles would drop dramatically.  Also, increasing parking lot lighting would help.  There are a fair amount of lights around the parking lot, but they aren't very bright.  If the mgmt. is serious about deterring theft, they need to step their game up.  Better lights and a fence would have a huge impact.
+Anyway, my room was of decent size, but as many others have said in reviews, the furniture was worn out and in need of replacement.  The sofa had several rips and holes in it, doors badly scratched,...Spent one weeknight June 2016 on a business trip.  I was a bit nervous about this hotel being rated just about the worst in Westminster, but it was close to where I needed to be, and the price was better than others nearby.  Was also worried about crime in the parking lot based on other reviews.Check in was ok.  I asked the girl about the tons of "lock your car, not responsible for theft" signs all over the parking lot.  She said car "break-ins don't happen very often".  Didn't exactly have a calming effect.  There is a bike path that runs along the highway, which is adjacent to the parking lot.  Easy access for thieves to the parking lot, and easy exit to escape into the night.  Quite simply, the hotel needs to put up a fence around the property.  Very simple to do, and the likelihood of theft from vehicles would drop dramatically.  Also, increasing parking lot lighting would help.  There are a fair amount of lights around the parking lot, but they aren't very bright.  If the mgmt. is serious about deterring theft, they need to step their game up.  Better lights and a fence would have a huge impact.Anyway, my room was of decent size, but as many others have said in reviews, the furniture was worn out and in need of replacement.  The sofa had several rips and holes in it, doors badly scratched, tiles dirty, etc.  This hotel needs a makeover.The internet was pretty bad.  Other complaints on here seemed to be confirmed.  I tried different modems to no avail.  I'm sure it would be okay if you're just checking email and such, but forget about watching vids and things like that.  I checked the speed several times, and it was horrible.  After lots of problems trying to watch videos, I finally hooked up my laptop to a Wi-Fi hotspot on my phone, and it was a night and day difference.  The Wi-Fi at this hotel sucks, so be warned if it is very important to you.  The TV has a good lineup of channels.  A/C worked good, although I had to take the cover off the unit because the fan was making a horrible noise.  Once I took the cover off, it was fine.Noise wasn't too bad.  Some rumbling around in the hallways during the evening, doors slamming, etc,, but highway noise wasn't bad.  Fortunately I was on the opposite side from the highway though.  Ask for a room away from the highway.In the morning, I went downstairs at about 6:00, and the breakfast room was locked.  There was no coffee available.  I asked the girl at the front desk when the breakfast room opened, and she said 6:30.  I asked why I couldn't get any coffee, and she told me to knock on the door, and someone inside "might" give me some coffee.  I saw a girl in there with headphones on, and of course, she couldn't hear me knocking.  Once I finally got her attention, she told me "I haven't made any yet".  Is there any hotel in the entire country (that offers coffee) that doesn't actually have coffee made at 6 in the morning????  Talk about ridiculous.  I should give the place a poor rating on that alone.  And no breakfast room access until 6:30?  Too bad, so sad if you have to leave a bit earlier I guess.Fortunately, my car didn't get broken into, and there weren't any major screw-ups.  Just lots of little things that need attention.  Nothing memorable about the place.  Just an old hotel that is barely hanging on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r380041525-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>380041525</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Rooms okay, loud hi way noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer service was nice, rooms were alright. We had booked 2 rooms and neither one of the bathroom doors shut well if at all. Our rooms faced the hi way so it was noisy. The area of the hotel was nice. Restaurants, and stores were close by, which was convenient.   The pool was ice cold, so the swimming didn't last long. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r378140291-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>378140291</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>It's alright</t>
+  </si>
+  <si>
+    <t>It's a quaint little place. There were a lot of noises in our room. Popping in the walls, we had to unplug the alarm clock because it wouldn't stop buzzing, the comforter was stained, breakfast was nothing spectacular, kind of located in a crummy area. The staff was polite and the rooms were clean, though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r374644153-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>374644153</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Served it's purpose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was clean and bed was comfortable. Room was dated and fixtures a little shaky. Needed a place to stay while going cross country and this worked out. Staff was nice. Did not stay for breakfast. Staff strongly emphasized that they are not responsible for any break-ins to your car. Just be careful not to leave anything of value in your car (it's our practice not to) and park in front of hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r374514960-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>374514960</t>
+  </si>
+  <si>
+    <t>Wonderful Staff Great Stay</t>
+  </si>
+  <si>
+    <t>Visiting friends in Boulder this hotel was a great location. Front desk helped us navigate and rooms were fresh and clean. Enjoyed the sleep on the comfy beds and the buffet breakfast in the morning. Overall great stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r373868419-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>373868419</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Very Friendly Staff, but</t>
+  </si>
+  <si>
+    <t>It`s the little things. Worn paint. chipped furniture, incomplete bathroom cleaning.  The overall room was clean, breakfast was the average stuff, but hot and good. HEADS UP-This hotel is like 50 feet from a very noisy turnpike. We got a room facing the other way and it was quiet, but I fear for the other side...The mountain view was great. Internet was non-existent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r351991916-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>351991916</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Glad we came back</t>
+  </si>
+  <si>
+    <t>We stayed here last year and hadn't planned to return because we thought the place was getting pretty run down.  However, after reading the more recent reviews, we booked several nights.  Our grandkids love to swim; and this place had a nice pool that has just been rennovated.  There is new carpet and wallpaper; and the overall property is in much better condition.  Rooms seemed clean and beds were quite comfortable.  We will stay again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r350960504-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>350960504</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>WiFi is TERRIBLE. TERRIBLE TERRIBLE TERRIBLE</t>
+  </si>
+  <si>
+    <t>I've stayed here on 3 different occasions. The hotel is getting older, the staff is getting less helpful and the wifi, well its always been bad but its even worse now.BUSINESS TRAVELERS STAY AWAY.Your wifi connection will max out a whopping 0.84 MBPS. 0.84! Thats the peak speed. Average speeds will be more in the 0.33 MBPS range. For comparison, even the most basic internet plans from the cable company are over 30 times faster. Dial up probably would have been a better option.When I arrived to check in, there was no staff on site. Don't know where they were, but they werent there, so after waiting a while, I left and came back after getting some food.The room is nothing special but its not horrible. I'd call the rooms acceptable, the service horrid and the wifi completely unacceptable. The fact that they name their network "SKYHIGHSPEED" is an insult to humanity and borders on a valid complaint to the BBB.And oh, btw if you are a choice privleges member, don't expect any kind of recognition or welcome of any kind. Some places give you water, other places say 'thank you' - this place just makes you wait, and wait, and wait and eventually tosses a key at you before going into hiding in the back againMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I've stayed here on 3 different occasions. The hotel is getting older, the staff is getting less helpful and the wifi, well its always been bad but its even worse now.BUSINESS TRAVELERS STAY AWAY.Your wifi connection will max out a whopping 0.84 MBPS. 0.84! Thats the peak speed. Average speeds will be more in the 0.33 MBPS range. For comparison, even the most basic internet plans from the cable company are over 30 times faster. Dial up probably would have been a better option.When I arrived to check in, there was no staff on site. Don't know where they were, but they werent there, so after waiting a while, I left and came back after getting some food.The room is nothing special but its not horrible. I'd call the rooms acceptable, the service horrid and the wifi completely unacceptable. The fact that they name their network "SKYHIGHSPEED" is an insult to humanity and borders on a valid complaint to the BBB.And oh, btw if you are a choice privleges member, don't expect any kind of recognition or welcome of any kind. Some places give you water, other places say 'thank you' - this place just makes you wait, and wait, and wait and eventually tosses a key at you before going into hiding in the back againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r334022946-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>334022946</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Do NOT honor discounts</t>
+  </si>
+  <si>
+    <t>Called the hotel directly as the website was not working. The front desk couldn't honor my 20% discount because she "didn't know how to apply it." The manager was not in so I asked her to call the manager. After waiting on hold they told me to try my online reservation at a later time if I wanted my full discount as they would not apply it over the phone even though I had my member number in hand. Horrible customer service over $10. Will never stay here.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r328223953-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>328223953</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Great for a quick visit.</t>
+  </si>
+  <si>
+    <t>We have stayed here many times over the years. We have family in the immediate area so this hotel is very convienient for us. Although dated in many ways they are attempting to upgrade the facility. We know this takes a lot of time and money and we appreciate your efforts. The service has always been excellent, clean rooms, quiet and comfortable. We will look no further on our next visit to Westminster. Thanx</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r327148209-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>327148209</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Has improved since last stay</t>
+  </si>
+  <si>
+    <t>Stayed for one night during State VB Tourney.  In the process of updating so were big carpet rolls in hallway which made difficult to maneuver but is temporary.  We were in rooms that had been completed so very clean, bed okay.  Bit soft for me but the others were pleased.  Due to how high the TV and control box were in comparison to the bed was difficult to control with the remote, again, a small inconvenience. Continental breakfast was adequate, would like to see more fruit and larger variety of yogurt.  Would stay again, especially for the rate given</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r324301910-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>324301910</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Great place great customer service</t>
+  </si>
+  <si>
+    <t>We had the king suite on the 2nd floor and the staff went above and beyond to make our stay an awesome experience. Miguel is a great asset to this business. We had problems with the cable on the TV and the entire staff was very helpful and the maintenance man came in and worked on it until it was fixed. We would highly recommend the hotel. Very clean, comfortable bed and we loved the jacuzzi and the Internet connection worked great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r304800761-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>304800761</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Affordable, clean, but could use a handyman</t>
+  </si>
+  <si>
+    <t>If you just want a place to sleep at a cheap price, this is fine.  The room was fairly large and well furnished, and it was quiet.  We didn't like the sink being out in the room (vs. in the bathroom), but that's not a deal breaker.  The breakfast was standard fare.The toilet seat in our bathroom was broken, which we didn't find out until we were in our PJs, so we just lived with it.  But it was obviously broken, and should have been reported by the maid and fixed.  We were not asked how our room/stay was when we checked out, so we forgot to tell them about it.  One of the lights didn't work in the room.  The ice-cube compartment in the fridge was so caked with frost that it was unusable.  These details should be taken care of.  Sure, we don't expect things to be pristine at this price, but we expect things to work.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>If you just want a place to sleep at a cheap price, this is fine.  The room was fairly large and well furnished, and it was quiet.  We didn't like the sink being out in the room (vs. in the bathroom), but that's not a deal breaker.  The breakfast was standard fare.The toilet seat in our bathroom was broken, which we didn't find out until we were in our PJs, so we just lived with it.  But it was obviously broken, and should have been reported by the maid and fixed.  We were not asked how our room/stay was when we checked out, so we forgot to tell them about it.  One of the lights didn't work in the room.  The ice-cube compartment in the fridge was so caked with frost that it was unusable.  These details should be taken care of.  Sure, we don't expect things to be pristine at this price, but we expect things to work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r304115680-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>304115680</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>It is by far the cheapest in between Denver and Boulder so if that's what you are looking for is perfect and near alot of stuff.  As a hotel though you get what you pay for but overall it was fine and would stay again. Great for families wanting to save money for their trip or vacation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r298571579-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>298571579</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Visiting family.</t>
+  </si>
+  <si>
+    <t>Bed was very comfortable. Staff was very helpful. Couldn't get the tv to come on. We called the front desk and they brought up a new remote but ended up being the cable box. Talked to the front desk  again in the morning and by the time we returned it was fixed. I was a little concerned when our room was across the hall from the elevator. We didn't hear a thing. This is our second stay at this motel. We would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r281957352-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>281957352</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Good experience overall - no complaints.</t>
+  </si>
+  <si>
+    <t>I was staying in the Denver area with three friends of mine, and we had the opportunity to stay at this Quality Inn. In general, I was impressed. Our room was clean and comfortable.The hotel offered a free breakfast, but I ended up eating out elsewhere for breakfast both mornings I was there so I didn't get to take advantage of that. It looked like there were a lot of good options for the breakfast food from what I could tell.The pool and hot tub were nice as well. I can't really comment on the check-in or check-out experience because I wasn't the one who booked the room. I can only assume those experiences were acceptable.I'd gladly stay at this Quality Inn if I could. I had no complaints whatsoever.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I was staying in the Denver area with three friends of mine, and we had the opportunity to stay at this Quality Inn. In general, I was impressed. Our room was clean and comfortable.The hotel offered a free breakfast, but I ended up eating out elsewhere for breakfast both mornings I was there so I didn't get to take advantage of that. It looked like there were a lot of good options for the breakfast food from what I could tell.The pool and hot tub were nice as well. I can't really comment on the check-in or check-out experience because I wasn't the one who booked the room. I can only assume those experiences were acceptable.I'd gladly stay at this Quality Inn if I could. I had no complaints whatsoever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r280610579-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>280610579</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>No customer service, they actually laughed in our face. Hotwire fail.</t>
+  </si>
+  <si>
+    <t>We were golfing in Westminster and wanted to stay in the area. I found a hot wired to go and this is what we got. When we showed up and ask questions we were treated very poorly. The rooms were horrible with 1970's microwaves. Breakfast from only 8-9:30? Aren't those working hours? No toilet paper in the guest bath. Would never stay at a quality in or use Hotwire for a "deal". $100 for a horrible stay. Waste of money. Next time I'll spend the extra $25-50.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r273880264-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>273880264</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Well-run standard Quality Inn - Boulder Turnpike</t>
+  </si>
+  <si>
+    <t>This is a standard, well-maintained Quality Inn, which provided us with reasonably priced accommodations during CU's graduation weekend, when everything in Boulder and the nearby Superior and Louisville areas was either sold out or way overpriced.The property is just under 20 miles from the CU campus and visitors should note that US 36 (known as the Boulder Turnpike) is undergoing a major renovation, which causes numerous traffic problems, depending on the day and time of day.  The Quality Inn was in good condition and the staff was very good.  We had no issues.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r272821323-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>272821323</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Southern hospitality?</t>
+  </si>
+  <si>
+    <t>1)This place needs to find people that look/act alive. We arrived in the evening and went to check in, I was expecting a pleasant or at least a professional greeting. Instead I got a quick look from one person then nothing. The other person mumbled something, seemingly annoyed that I was there. I got through the check in thinking maybe they were just having a bad day. The next morning was about the same! No good morning, nothing. I had to pull the desk help from the breakfast area, again seemingly annoyed.2) I will be watching my statement because I think that she charged me when I arrived even though I paid on line.3)The room was very dated. We looked for bugs. We didn't find any but it looked like that kind of a place.4)Breakfast was sad.We will not use this place again MoreShow less</t>
+  </si>
+  <si>
+    <t>1)This place needs to find people that look/act alive. We arrived in the evening and went to check in, I was expecting a pleasant or at least a professional greeting. Instead I got a quick look from one person then nothing. The other person mumbled something, seemingly annoyed that I was there. I got through the check in thinking maybe they were just having a bad day. The next morning was about the same! No good morning, nothing. I had to pull the desk help from the breakfast area, again seemingly annoyed.2) I will be watching my statement because I think that she charged me when I arrived even though I paid on line.3)The room was very dated. We looked for bugs. We didn't find any but it looked like that kind of a place.4)Breakfast was sad.We will not use this place again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r269500798-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>269500798</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a tournament, and loved our stay. The rooms were a great price and comfortable. The staff was very nice and helped us with directions to the different parks. The pool was enjoyable and the girls had a great time swimming. They had a variety of different items for breakfast and had a clean environment. Would differently recommend staying here</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r264383061-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>264383061</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Needed a safe place for me &amp; my 2 young boys for Easter in the middle of Moving due2domestic violence,&amp; a nasty divorce</t>
+  </si>
+  <si>
+    <t>The staff was not friendly at all. Anytime we ask for anything toothbrushes, wifi code, they were very rude. we did not feel wellcome there at all we stayed there for 3 nights.  The clerk at the front desk became a smart alec when I asked him if I could simply have something to clean the tub, because the maid did not do her job that day, even though I spoke with her face to face and asked her to clean the bathroom because the tub was pretty dirty do to my two young boys swimming in the dirty pool it made our tub really dirty very fast. plus the bathroom and the tub was not that clean upon our arrival.  So I tried to go to the front desk ask the man for any bathroom cleaners to do it myself, I had just vacuumed in fact because the maid will not wait for me to pick up the last few things so she could vacuum. But she was able to ask if there was anything ready for her to do right then which I told her the bathroom please clean the bathroom. Was ready for her to go in and clean right at the moment before she left ice you must of went in there most and then she shud some towels in my arms and left I didn't even realize she didn't clean the bathroom until later on...The staff was not friendly at all. Anytime we ask for anything toothbrushes, wifi code, they were very rude. we did not feel wellcome there at all we stayed there for 3 nights.  The clerk at the front desk became a smart alec when I asked him if I could simply have something to clean the tub, because the maid did not do her job that day, even though I spoke with her face to face and asked her to clean the bathroom because the tub was pretty dirty do to my two young boys swimming in the dirty pool it made our tub really dirty very fast. plus the bathroom and the tub was not that clean upon our arrival.  So I tried to go to the front desk ask the man for any bathroom cleaners to do it myself, I had just vacuumed in fact because the maid will not wait for me to pick up the last few things so she could vacuum. But she was able to ask if there was anything ready for her to do right then which I told her the bathroom please clean the bathroom. Was ready for her to go in and clean right at the moment before she left ice you must of went in there most and then she shud some towels in my arms and left I didn't even realize she didn't clean the bathroom until later on that evening which was Easter night. apparently if it wasn't clean already the lady or made really didn't want to clean it then is the only explanation I can think of. The clerk said they couldn't give me chemicals nor would they clean it and they handed me 2 bars of soap body soap and they told me that I could scrub it that way.so I waited for shift change and spoke with a difference employees at the front desk in hopes she would give me something to clean the tub I did that while returning the vacuum that I had to use to vacuum my own room since the maid refused to wait an extra 5 more minutes as I picked up my items so she can vacuum.that lady immediately seemed irritated and rude as well she immediately said we're not allowed to give chemicals to guess nobody offered to clean not her not the prior employee and then she turned around and gave me two bars of soap as well.  then I asked her if we could go in the hot tub maybe that would help but the hot tub was very dirty stunk really bad and it was like green water we were there earlier it didn't seem to smell or to look that way it was really disturbing I've been there before and they're hot tub was out of order and then do too similar issues. the lady at the front desk wanted me to switch rooms but it was pretty late around 11 or 12 and there is just no way specially with the pain I was in due to my knees that made any sense for me to do I gave up told her possibly tomorrow if we say them another night which we plan on staying one to two more nights there.  They was very rude and inconsiderate when I tried to explain I really needed the tub clean so I could take a bath to relieve some of the knee pain I was experiencing. in addition the night before Easter I asked the guy hasn't asked about a small Easter egg hunt, he seemed annoyed and very against it kept saying other hotel guests children going to get in the way. the next day they said that since I didn't move to a different room the night before they would give me 2 nights for $89 I. I asked if it would be okay if I could smoke a cigarette you too I just woke up and get a cup of coffee and go to my room to retrieve my wallet so I could pay for this. I returned and all of the sudden the lady said well that 89 would be actually 89 per night so she changed the original quote she gave me when I returned with my wallet. I did not pay for us I told her she told me something else before as far as the price went and I figured that was the inconvenience due to how dirty the room was and how I had to clean it because the maid refused to clean it unless it was clean already. the lady said she would send the manager to my room when he got there he got there would be before 11:00am, to discuss this matter with me. I went back to my room and fell asleep and woke up to the manager banging on the door.  It was 11:30 he insisted I open the door so he could see the room I was confused wasn't even sure he was allowed to do that but I have nothing to hide so I did, which I had a lot of stuff in the room due to Easter celebration but I assure you it was not dirty at all, because I just cleaned due to the made refusing to clean it, I had to clean because of the Easter baskets and holidays always makes a big mess. because the manager seeing all my stuff he said oh my god what a mess then he said I'm calling the cops you're going to be put on our donots check out list and I had to tell him that I had to start recording him because he was acting absurd in fact it scared me a lot. this was supposed to be a safe place which me and my boys could relax in because our family is going through a very rough times. we spent a lot of money for them to treat us like this I did not appreciate it and it made me have a panic attack, and severe anxiety as they chased us out of the hotel we we threw our stuff in bags which made huge messes in my things even ruining some of me &amp; my children's clothes which was the last thing I needed being that I was already going through a really difficult time with me and my children. We were scared we didn't know exactly what they could get away with at this point, the manager was absurd I asked him to come back to the room to talk to me which I informed him I started recording everything and then he would not come back he said he tried saying he was to scared to come back to my room its ridiculous I'm a single mother with two young children I have never meet the manager before until that day, and as soon as I told him I was recording everything &amp; had been, he would no longer speak to me and I think he felt guilty all a sudden because I know he knew he was in the wrong. I tried to talk to other people I did let them know I was recording to and nobody would really talk to me I would not recommend it to my worst enemy and I will not be going back. The breakfast was kind of okay but in mind I have been making a stick kind of I'm not quite sure on that but the AC in powdered precooked and microwave and one of the waitresses was running into everybody in acting very very rude.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was not friendly at all. Anytime we ask for anything toothbrushes, wifi code, they were very rude. we did not feel wellcome there at all we stayed there for 3 nights.  The clerk at the front desk became a smart alec when I asked him if I could simply have something to clean the tub, because the maid did not do her job that day, even though I spoke with her face to face and asked her to clean the bathroom because the tub was pretty dirty do to my two young boys swimming in the dirty pool it made our tub really dirty very fast. plus the bathroom and the tub was not that clean upon our arrival.  So I tried to go to the front desk ask the man for any bathroom cleaners to do it myself, I had just vacuumed in fact because the maid will not wait for me to pick up the last few things so she could vacuum. But she was able to ask if there was anything ready for her to do right then which I told her the bathroom please clean the bathroom. Was ready for her to go in and clean right at the moment before she left ice you must of went in there most and then she shud some towels in my arms and left I didn't even realize she didn't clean the bathroom until later on...The staff was not friendly at all. Anytime we ask for anything toothbrushes, wifi code, they were very rude. we did not feel wellcome there at all we stayed there for 3 nights.  The clerk at the front desk became a smart alec when I asked him if I could simply have something to clean the tub, because the maid did not do her job that day, even though I spoke with her face to face and asked her to clean the bathroom because the tub was pretty dirty do to my two young boys swimming in the dirty pool it made our tub really dirty very fast. plus the bathroom and the tub was not that clean upon our arrival.  So I tried to go to the front desk ask the man for any bathroom cleaners to do it myself, I had just vacuumed in fact because the maid will not wait for me to pick up the last few things so she could vacuum. But she was able to ask if there was anything ready for her to do right then which I told her the bathroom please clean the bathroom. Was ready for her to go in and clean right at the moment before she left ice you must of went in there most and then she shud some towels in my arms and left I didn't even realize she didn't clean the bathroom until later on that evening which was Easter night. apparently if it wasn't clean already the lady or made really didn't want to clean it then is the only explanation I can think of. The clerk said they couldn't give me chemicals nor would they clean it and they handed me 2 bars of soap body soap and they told me that I could scrub it that way.so I waited for shift change and spoke with a difference employees at the front desk in hopes she would give me something to clean the tub I did that while returning the vacuum that I had to use to vacuum my own room since the maid refused to wait an extra 5 more minutes as I picked up my items so she can vacuum.that lady immediately seemed irritated and rude as well she immediately said we're not allowed to give chemicals to guess nobody offered to clean not her not the prior employee and then she turned around and gave me two bars of soap as well.  then I asked her if we could go in the hot tub maybe that would help but the hot tub was very dirty stunk really bad and it was like green water we were there earlier it didn't seem to smell or to look that way it was really disturbing I've been there before and they're hot tub was out of order and then do too similar issues. the lady at the front desk wanted me to switch rooms but it was pretty late around 11 or 12 and there is just no way specially with the pain I was in due to my knees that made any sense for me to do I gave up told her possibly tomorrow if we say them another night which we plan on staying one to two more nights there.  They was very rude and inconsiderate when I tried to explain I really needed the tub clean so I could take a bath to relieve some of the knee pain I was experiencing. in addition the night before Easter I asked the guy hasn't asked about a small Easter egg hunt, he seemed annoyed and very against it kept saying other hotel guests children going to get in the way. the next day they said that since I didn't move to a different room the night before they would give me 2 nights for $89 I. I asked if it would be okay if I could smoke a cigarette you too I just woke up and get a cup of coffee and go to my room to retrieve my wallet so I could pay for this. I returned and all of the sudden the lady said well that 89 would be actually 89 per night so she changed the original quote she gave me when I returned with my wallet. I did not pay for us I told her she told me something else before as far as the price went and I figured that was the inconvenience due to how dirty the room was and how I had to clean it because the maid refused to clean it unless it was clean already. the lady said she would send the manager to my room when he got there he got there would be before 11:00am, to discuss this matter with me. I went back to my room and fell asleep and woke up to the manager banging on the door.  It was 11:30 he insisted I open the door so he could see the room I was confused wasn't even sure he was allowed to do that but I have nothing to hide so I did, which I had a lot of stuff in the room due to Easter celebration but I assure you it was not dirty at all, because I just cleaned due to the made refusing to clean it, I had to clean because of the Easter baskets and holidays always makes a big mess. because the manager seeing all my stuff he said oh my god what a mess then he said I'm calling the cops you're going to be put on our donots check out list and I had to tell him that I had to start recording him because he was acting absurd in fact it scared me a lot. this was supposed to be a safe place which me and my boys could relax in because our family is going through a very rough times. we spent a lot of money for them to treat us like this I did not appreciate it and it made me have a panic attack, and severe anxiety as they chased us out of the hotel we we threw our stuff in bags which made huge messes in my things even ruining some of me &amp; my children's clothes which was the last thing I needed being that I was already going through a really difficult time with me and my children. We were scared we didn't know exactly what they could get away with at this point, the manager was absurd I asked him to come back to the room to talk to me which I informed him I started recording everything and then he would not come back he said he tried saying he was to scared to come back to my room its ridiculous I'm a single mother with two young children I have never meet the manager before until that day, and as soon as I told him I was recording everything &amp; had been, he would no longer speak to me and I think he felt guilty all a sudden because I know he knew he was in the wrong. I tried to talk to other people I did let them know I was recording to and nobody would really talk to me I would not recommend it to my worst enemy and I will not be going back. The breakfast was kind of okay but in mind I have been making a stick kind of I'm not quite sure on that but the AC in powdered precooked and microwave and one of the waitresses was running into everybody in acting very very rude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r250989641-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>250989641</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>A bit disappointed!</t>
+  </si>
+  <si>
+    <t>Every year we have a small family get together in the Denver area. This year we chose this hotel as it was near all the attractions we wanted to take in. My wife and I had stayed here a few years ago, all was good, so why not return? The service was fine, breakfast was fine, the rates were fine. The cleanliness left a bit to be desired and the place was so dated, I doubt anything had been updated since our visit years ago. I doubt we would return and reluctantly would recommend. Let me know when a remodel is completed.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r248867716-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>248867716</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Not as quiet as I hoped for</t>
+  </si>
+  <si>
+    <t>We arrived 1-8-15. We've stayed here many years ago and our stay then was good. This trip wasn't as good.  The rooms to the northeast face highway 36 and traffic was loud. So mistake on our part not asking for a room opposite the highway side. Get and odd number room. The room wasn't very clean with food stains on the floor that could have been cleaned and the bed spread looked a little busy with some stains on it as well, ick.  Our room phone was busy too with the message light flashing so we had to unplug it since the desk couldn't turn it off. We had to leave the heater on high all night and there was a breeze coming around the window AC area and found the next morning  the window wasn't latched.  I was just to tired to switch rooms that day but wished I had. You get what you pay for on this one. Breakfast was limited but good. Good for a one night stay. Had easy aces to highway and shopping up the road.  Some good restaurant around as wellMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We arrived 1-8-15. We've stayed here many years ago and our stay then was good. This trip wasn't as good.  The rooms to the northeast face highway 36 and traffic was loud. So mistake on our part not asking for a room opposite the highway side. Get and odd number room. The room wasn't very clean with food stains on the floor that could have been cleaned and the bed spread looked a little busy with some stains on it as well, ick.  Our room phone was busy too with the message light flashing so we had to unplug it since the desk couldn't turn it off. We had to leave the heater on high all night and there was a breeze coming around the window AC area and found the next morning  the window wasn't latched.  I was just to tired to switch rooms that day but wished I had. You get what you pay for on this one. Breakfast was limited but good. Good for a one night stay. Had easy aces to highway and shopping up the road.  Some good restaurant around as wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r245769183-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>245769183</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Value Property, Great Beds, Pleasant Friendly Staff</t>
+  </si>
+  <si>
+    <t>Good location when staying in NW area of Denver (Westminster, Arvada) as I was visiting family. Go two blocks north on Sheridan for lots of shopping. several nearby restaurants of all types.  This hotel is older, shows some signs of age, but rooms were very clean and quite large. If you are looking for good quality and value price, I would recommend this Quality Inn NW. I had two queen beds at a reasonable (for the are) price. Beds were excellent!  Strong WiFi signal and no connection problems after logging using browser.  Full continental breakfast which changed on my second morning. Staff kept it well stocked, or ask if you need anything.  Eggs, sausages, yogurt, cereal, waffles, muffins, breads coffee, milk, juice, and tea, 6;30 am until 9:30 am.  Marble topped tables in breakfast area.  As indicated below, it is adjacent (back up to) the Boulder Turnpike, but it is easily found using your GPS. Mine brought me directly there.  Sheridan and US-36 area is a busy street and some construction, so check a map or use GPS to get to the hotel as the turn onto Turnpike Drive might easily be missed, but the turn is just south of the bus station, then 2 blocks or so on Turnpike Dr.  I enjoyed my two day stay.I did not use pool or whirlpool, but they looked very clean in the daylight.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Good location when staying in NW area of Denver (Westminster, Arvada) as I was visiting family. Go two blocks north on Sheridan for lots of shopping. several nearby restaurants of all types.  This hotel is older, shows some signs of age, but rooms were very clean and quite large. If you are looking for good quality and value price, I would recommend this Quality Inn NW. I had two queen beds at a reasonable (for the are) price. Beds were excellent!  Strong WiFi signal and no connection problems after logging using browser.  Full continental breakfast which changed on my second morning. Staff kept it well stocked, or ask if you need anything.  Eggs, sausages, yogurt, cereal, waffles, muffins, breads coffee, milk, juice, and tea, 6;30 am until 9:30 am.  Marble topped tables in breakfast area.  As indicated below, it is adjacent (back up to) the Boulder Turnpike, but it is easily found using your GPS. Mine brought me directly there.  Sheridan and US-36 area is a busy street and some construction, so check a map or use GPS to get to the hotel as the turn onto Turnpike Drive might easily be missed, but the turn is just south of the bus station, then 2 blocks or so on Turnpike Dr.  I enjoyed my two day stay.I did not use pool or whirlpool, but they looked very clean in the daylight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r242181602-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>242181602</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Hot tub in the room was nice.</t>
+  </si>
+  <si>
+    <t>Nice place to stay. The breakfast was not very good. The hot food wasn't. But they did have a waffle maker. Be warned, I found out the hard way there is no ice after 10. I seen no signs posted for that. Other than that, Nice place. The public hot tub was actually hot, too! :-)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r236231570-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>236231570</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>So many issues!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel two nights when I had to go to the Denver area for a couple of job interviews. Unfortunately, there were so many issues with this location that I don't know where to begin!
+Staff: Upon check-in, I was given my room (211) and pointed to what end of the building it was on. As soon as that was done, the woman at the front desk turned away from me as I was standing there and started playing with the computer. I had to ask for her attention as I had a question. She was not very welcoming or friendly. Day 2 I realized the comforter had what looked like blood on it. I called the front desk (11am) and asked that housekeeping replace the soiled comforter. The woman on the phone said it would be taken care of. At 3pm I returned and the bed had been made. I looked to see if the comforter had been changed and it had not. I called the front desk and the man on the line acted as if this was a huge imposition. He told me that housekeeping was no longer on site and he was really busy with checking people in. He then told me he would bring up a clean comforter. He arrived at my door with a sheet and he was on the phone talking with someone. He acted as though he was just...I stayed at this hotel two nights when I had to go to the Denver area for a couple of job interviews. Unfortunately, there were so many issues with this location that I don't know where to begin!Staff: Upon check-in, I was given my room (211) and pointed to what end of the building it was on. As soon as that was done, the woman at the front desk turned away from me as I was standing there and started playing with the computer. I had to ask for her attention as I had a question. She was not very welcoming or friendly. Day 2 I realized the comforter had what looked like blood on it. I called the front desk (11am) and asked that housekeeping replace the soiled comforter. The woman on the phone said it would be taken care of. At 3pm I returned and the bed had been made. I looked to see if the comforter had been changed and it had not. I called the front desk and the man on the line acted as if this was a huge imposition. He told me that housekeeping was no longer on site and he was really busy with checking people in. He then told me he would bring up a clean comforter. He arrived at my door with a sheet and he was on the phone talking with someone. He acted as though he was just going to hand me the sheet and leave. I explained that is not what I asked for and showed him the comforter. He made the appropriate comments showing he understood why I wanted a new comforter etc, but his tone and body language were negative and he seemed rather irritated. He eventually returned with a comforter in a BLACK GARBAGE BAG and handed it to me. He offered (reluctantly) to make the bed. At that point, I didn't want to deal with his attitude and told him I would do it. There was never an apology for the stained comforter or for it not being taken care of the first time I asked (his excuse was that he wasn't on duty when I called that morning). Stars: 0Cleanliness: Other than the stained comforter, the room was more or less clean. Carpet was old and I didn't really like walking around with bare feet. The steps between floors looked like nobody ever touched them - lots of dirt and debris on the stairs etc. Breakfast room was clean. Stars: 2Food: Breakfast was the highlight of my trip. Good selection and the hot items changed from day 1 to 2 which was a nice surprise. Stars: 4Room: Hotel is next to a train track so it can be rather loud when the train goes by. I suggest putting the fan on for white noise. Bed was ok. I liked having my choice of soft and firm pillows. NO insulation between floors - I could hear the children above me jumping off beds and running around... it sounded like a herd of elephants. Shower was ok, good water pressure but the shower head made the water feel a bit painful at times. Room had a microwave and fridge which was a nice surprise. Stars:3Safety: The area seems decent enough, HOWEVER, the side door was open the entire time (you didn't need your room card to get in). As a single female, this made me rather uncomfortable. Stars: 1I would expect an experience like this from a location where I am paying $40-$50 a night, NOT when I am paying $80!Overall, due to the safety, cleanliness and staffing issues, I would not recommend this hotel. I will not be back to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel two nights when I had to go to the Denver area for a couple of job interviews. Unfortunately, there were so many issues with this location that I don't know where to begin!
+Staff: Upon check-in, I was given my room (211) and pointed to what end of the building it was on. As soon as that was done, the woman at the front desk turned away from me as I was standing there and started playing with the computer. I had to ask for her attention as I had a question. She was not very welcoming or friendly. Day 2 I realized the comforter had what looked like blood on it. I called the front desk (11am) and asked that housekeeping replace the soiled comforter. The woman on the phone said it would be taken care of. At 3pm I returned and the bed had been made. I looked to see if the comforter had been changed and it had not. I called the front desk and the man on the line acted as if this was a huge imposition. He told me that housekeeping was no longer on site and he was really busy with checking people in. He then told me he would bring up a clean comforter. He arrived at my door with a sheet and he was on the phone talking with someone. He acted as though he was just...I stayed at this hotel two nights when I had to go to the Denver area for a couple of job interviews. Unfortunately, there were so many issues with this location that I don't know where to begin!Staff: Upon check-in, I was given my room (211) and pointed to what end of the building it was on. As soon as that was done, the woman at the front desk turned away from me as I was standing there and started playing with the computer. I had to ask for her attention as I had a question. She was not very welcoming or friendly. Day 2 I realized the comforter had what looked like blood on it. I called the front desk (11am) and asked that housekeeping replace the soiled comforter. The woman on the phone said it would be taken care of. At 3pm I returned and the bed had been made. I looked to see if the comforter had been changed and it had not. I called the front desk and the man on the line acted as if this was a huge imposition. He told me that housekeeping was no longer on site and he was really busy with checking people in. He then told me he would bring up a clean comforter. He arrived at my door with a sheet and he was on the phone talking with someone. He acted as though he was just going to hand me the sheet and leave. I explained that is not what I asked for and showed him the comforter. He made the appropriate comments showing he understood why I wanted a new comforter etc, but his tone and body language were negative and he seemed rather irritated. He eventually returned with a comforter in a BLACK GARBAGE BAG and handed it to me. He offered (reluctantly) to make the bed. At that point, I didn't want to deal with his attitude and told him I would do it. There was never an apology for the stained comforter or for it not being taken care of the first time I asked (his excuse was that he wasn't on duty when I called that morning). Stars: 0Cleanliness: Other than the stained comforter, the room was more or less clean. Carpet was old and I didn't really like walking around with bare feet. The steps between floors looked like nobody ever touched them - lots of dirt and debris on the stairs etc. Breakfast room was clean. Stars: 2Food: Breakfast was the highlight of my trip. Good selection and the hot items changed from day 1 to 2 which was a nice surprise. Stars: 4Room: Hotel is next to a train track so it can be rather loud when the train goes by. I suggest putting the fan on for white noise. Bed was ok. I liked having my choice of soft and firm pillows. NO insulation between floors - I could hear the children above me jumping off beds and running around... it sounded like a herd of elephants. Shower was ok, good water pressure but the shower head made the water feel a bit painful at times. Room had a microwave and fridge which was a nice surprise. Stars:3Safety: The area seems decent enough, HOWEVER, the side door was open the entire time (you didn't need your room card to get in). As a single female, this made me rather uncomfortable. Stars: 1I would expect an experience like this from a location where I am paying $40-$50 a night, NOT when I am paying $80!Overall, due to the safety, cleanliness and staffing issues, I would not recommend this hotel. I will not be back to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r234025464-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>234025464</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>First time to stay at this Comfort Inn and found it to be a very good place to stay.  The check in was easy and pleasant and the rooms were very nice.  Beds were good, pillows offered were soft and firm.  Quiet rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r233552255-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>233552255</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Talk about patience!</t>
+  </si>
+  <si>
+    <t>We pulled into Boulder, Colorado after dark which made things a lot harder; we also were tired and wanting to find a room we could afford.  After calling numerous places, this location was our second, and hearing $89 plus tax and then $8 more for ??? in Colorado, up to $189, we drove out toward Boulder proper which only made it worse.  There came a point in time that I decided we would return to the Comfort that quoted Srs., King bed, for $69.  When all was said and done it came to about $79 plus.  After three more telephone calls and frustration showing in my voice and a patient older lady on the other end, we checked in to this location.  I thought they might be rude because I was such a pest, not so.  Extremely cordial and happy that we were staying with them.
+Whenever we stay at a Corporate, our first thought is the Comfort.  We used to stay at the one in Billings ten or so years ago frequently as money was better for us and business took us to that area frequently for one reason or another.  We always got a very clean room, a Bible which is paramount with me, lots of hot water, nice towels, a wonderful bed without too many frills but lovely décor and matching curtains with the bedspread.    I enjoy a larger  room as does the other half and again,...We pulled into Boulder, Colorado after dark which made things a lot harder; we also were tired and wanting to find a room we could afford.  After calling numerous places, this location was our second, and hearing $89 plus tax and then $8 more for ??? in Colorado, up to $189, we drove out toward Boulder proper which only made it worse.  There came a point in time that I decided we would return to the Comfort that quoted Srs., King bed, for $69.  When all was said and done it came to about $79 plus.  After three more telephone calls and frustration showing in my voice and a patient older lady on the other end, we checked in to this location.  I thought they might be rude because I was such a pest, not so.  Extremely cordial and happy that we were staying with them.Whenever we stay at a Corporate, our first thought is the Comfort.  We used to stay at the one in Billings ten or so years ago frequently as money was better for us and business took us to that area frequently for one reason or another.  We always got a very clean room, a Bible which is paramount with me, lots of hot water, nice towels, a wonderful bed without too many frills but lovely décor and matching curtains with the bedspread.    I enjoy a larger  room as does the other half and again, we have always had that pleasure.  The shampoo, conditional and soap are of the nicest quality also and it must have been soft water for my hair turned out nice than ever!  Kudos to all the staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>We pulled into Boulder, Colorado after dark which made things a lot harder; we also were tired and wanting to find a room we could afford.  After calling numerous places, this location was our second, and hearing $89 plus tax and then $8 more for ??? in Colorado, up to $189, we drove out toward Boulder proper which only made it worse.  There came a point in time that I decided we would return to the Comfort that quoted Srs., King bed, for $69.  When all was said and done it came to about $79 plus.  After three more telephone calls and frustration showing in my voice and a patient older lady on the other end, we checked in to this location.  I thought they might be rude because I was such a pest, not so.  Extremely cordial and happy that we were staying with them.
+Whenever we stay at a Corporate, our first thought is the Comfort.  We used to stay at the one in Billings ten or so years ago frequently as money was better for us and business took us to that area frequently for one reason or another.  We always got a very clean room, a Bible which is paramount with me, lots of hot water, nice towels, a wonderful bed without too many frills but lovely décor and matching curtains with the bedspread.    I enjoy a larger  room as does the other half and again,...We pulled into Boulder, Colorado after dark which made things a lot harder; we also were tired and wanting to find a room we could afford.  After calling numerous places, this location was our second, and hearing $89 plus tax and then $8 more for ??? in Colorado, up to $189, we drove out toward Boulder proper which only made it worse.  There came a point in time that I decided we would return to the Comfort that quoted Srs., King bed, for $69.  When all was said and done it came to about $79 plus.  After three more telephone calls and frustration showing in my voice and a patient older lady on the other end, we checked in to this location.  I thought they might be rude because I was such a pest, not so.  Extremely cordial and happy that we were staying with them.Whenever we stay at a Corporate, our first thought is the Comfort.  We used to stay at the one in Billings ten or so years ago frequently as money was better for us and business took us to that area frequently for one reason or another.  We always got a very clean room, a Bible which is paramount with me, lots of hot water, nice towels, a wonderful bed without too many frills but lovely décor and matching curtains with the bedspread.    I enjoy a larger  room as does the other half and again, we have always had that pleasure.  The shampoo, conditional and soap are of the nicest quality also and it must have been soft water for my hair turned out nice than ever!  Kudos to all the staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r232629016-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>232629016</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>very good hotel in Denver area</t>
+  </si>
+  <si>
+    <t>Overall our 1 night stay was very good.  The main entrance and sign face the freeway so it can be easy to miss it as you drive down Turnpike Dr.  The staff were very helpful and let us have our room an hour before the official check -in time.  Room was a comfortable double queen with fridge, microwave and coffee maker together in a built-in cabinet.  The  3rd floor room also faced west for a great view of the foothills.  Elevator was a great plus.  All for less than $80 - which is a great price for the Denver area.  Top that off with a pool and hot tub and a very good hot breakfast, you have a great stay.  ( Also good access to Boulder and Golden )MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Overall our 1 night stay was very good.  The main entrance and sign face the freeway so it can be easy to miss it as you drive down Turnpike Dr.  The staff were very helpful and let us have our room an hour before the official check -in time.  Room was a comfortable double queen with fridge, microwave and coffee maker together in a built-in cabinet.  The  3rd floor room also faced west for a great view of the foothills.  Elevator was a great plus.  All for less than $80 - which is a great price for the Denver area.  Top that off with a pool and hot tub and a very good hot breakfast, you have a great stay.  ( Also good access to Boulder and Golden )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r230777727-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>230777727</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Average Comfort Inn</t>
+  </si>
+  <si>
+    <t>Location is good, not a value priced comfort inn, breakfast is so so not all that good. Staff is pleasant and helpful, however, for what you pay per night per room they need some serious upgrades in this location. Be careful before booking this hotel and compare with similar local hotels for a better value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r222034450-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>222034450</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Lower End of Comfort Inn Properties</t>
+  </si>
+  <si>
+    <t>Most Comfort Inns are in good shape. This one is not. From the battered from door and stained entry mat to the bruised room furniture this CI needs help. It was a reasonable price for a good location but I'd not stay here again. There are several restaurants near by and good access to the main roadways. The highway noise wasn't noticeable.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r219131492-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>219131492</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a few days just to get away from things, It is an older building but not too bad of shape, the room that we were in the bed could have used updateing and or at lease a  pillow top mattrass cause it was a little hard, the paint was chipping a little, the pool and hot tub area were nice. There is road work going on outside but the room was pretty quiet that you could not hear outside noices, just the noice from the hallway and from the people in the room about you. The hot breakfast was a popular and they had a good selection on eggs and bacon, then rotated it to have biscutts and gravy and scrambled eggs, to go along with waffles, and fruits and muffins, and bagles, and cerals. Sarah ( the lady working the breakfast area) made sure that everything was well stocked and was super busy the entire time making sure that everyone was getting enough to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a few days just to get away from things, It is an older building but not too bad of shape, the room that we were in the bed could have used updateing and or at lease a  pillow top mattrass cause it was a little hard, the paint was chipping a little, the pool and hot tub area were nice. There is road work going on outside but the room was pretty quiet that you could not hear outside noices, just the noice from the hallway and from the people in the room about you. The hot breakfast was a popular and they had a good selection on eggs and bacon, then rotated it to have biscutts and gravy and scrambled eggs, to go along with waffles, and fruits and muffins, and bagles, and cerals. Sarah ( the lady working the breakfast area) made sure that everything was well stocked and was super busy the entire time making sure that everyone was getting enough to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r214900835-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>214900835</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Excellent Breakfast</t>
+  </si>
+  <si>
+    <t>Best breakfast of all the hotels on our trip.  Had several hot and cold options, with the hot options changing daily.Service was excellent.  Rooms were very clean.Only drawback was that the internet was very slow.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r207972819-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>207972819</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Lousy Internet</t>
+  </si>
+  <si>
+    <t>Lousy Internet at this hotel.  Download speeds drop all the way to zero when a bunch of people get on it.  And worst of all for a biz traveller like me, you can not send email, it is blocked!  No tech support number in the room and when I called the front desk they gave me Comcast's number, amazing.  If you need functional Internet, surf elsewhere.  Been here twice, no third time.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r206905706-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>206905706</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>A convenient stop</t>
+  </si>
+  <si>
+    <t>,After a rather trying day on the road, I called while we were traveling and was able to get a room without a problem.  The desk clerk was very friendly and gave very detailed accurate directions to get to the location.  She was very helpful after we arrived, also, with a small problem we had.  AND the next day, when we were ready to continue, we found we only a few blocks from the freeway entrance we needed.The room was quiet even we were on the highway side, and clean.  We were glad to have such a nice place to stop. It was a reasonable price, and there was a good breakfast. We will stay here again if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>,After a rather trying day on the road, I called while we were traveling and was able to get a room without a problem.  The desk clerk was very friendly and gave very detailed accurate directions to get to the location.  She was very helpful after we arrived, also, with a small problem we had.  AND the next day, when we were ready to continue, we found we only a few blocks from the freeway entrance we needed.The room was quiet even we were on the highway side, and clean.  We were glad to have such a nice place to stop. It was a reasonable price, and there was a good breakfast. We will stay here again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r203243805-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>203243805</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Clean, well managed,good bed</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for several nights while visiting family. They had a reduced 2 night weekend rate that was an excellent value. The hotel is right along RT 36 which is a major highway Denver to Boulder. Our room #236 was on the highway side. We did not experience significant highway noise. My husband sleeps with earplugs and I with C-pap. So anyone with good hearing or a light sleeper may have problems with the highway side. The room was clean and tidy, no smells, bathroom was clean and stocked. A/C worked fine. The pool area smells like a pool area. Many people seemed to be having a good time. There were several youth groups(gymnastics, hockey,) and there were no hallway antics going on. Parents and hotel staff kept things quiet. Breakfast was very nice: fresh fruit and juice, hot waffles, cold cereals and continental breakfast. Hot and cold drinks, dairy. I don't recall eggs or bacon/sausage. I don't consume them so I didn't miss them. Desk staff was polite and helpful with several requests. When the public computer terminal would not print, the desk staff printed it from their terminal. We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for several nights while visiting family. They had a reduced 2 night weekend rate that was an excellent value. The hotel is right along RT 36 which is a major highway Denver to Boulder. Our room #236 was on the highway side. We did not experience significant highway noise. My husband sleeps with earplugs and I with C-pap. So anyone with good hearing or a light sleeper may have problems with the highway side. The room was clean and tidy, no smells, bathroom was clean and stocked. A/C worked fine. The pool area smells like a pool area. Many people seemed to be having a good time. There were several youth groups(gymnastics, hockey,) and there were no hallway antics going on. Parents and hotel staff kept things quiet. Breakfast was very nice: fresh fruit and juice, hot waffles, cold cereals and continental breakfast. Hot and cold drinks, dairy. I don't recall eggs or bacon/sausage. I don't consume them so I didn't miss them. Desk staff was polite and helpful with several requests. When the public computer terminal would not print, the desk staff printed it from their terminal. We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r193986124-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>193986124</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Nice stay, Friendly staff</t>
+  </si>
+  <si>
+    <t>I was on a business trip. The hotel was in a central location to get to Boulder and Denver.Upon check-in the staff was friendly and lobby had a warm feeling. The rooms were comfortable and the wi-fi actually worked.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r188144700-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>188144700</t>
+  </si>
+  <si>
+    <t>12/20/2013</t>
+  </si>
+  <si>
+    <t>visiting family</t>
+  </si>
+  <si>
+    <t>we where visiting family in the area and this was the closest hotel to our family, check in was great fast and the staff was very friendly. the room was very nice and clean. the kids mostly enjoined the indoor heated pool and the hot tub.The front desk was very helpful with us because we forgot out toothbrush and past.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r180347085-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>180347085</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Terrific &amp; Friendly Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel because of distance to Westminster and Boulder. The hotel was going under some renovations, but you would not have known. The rooms were clean, comfortable, and actually smelled fresh from the moment you entered the room. The fitness center had more than just the standard treadmill and breakfast attendant served us fresh hot breakfast.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r172893014-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>172893014</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>We stayed here two nights during a convention. We had a quick check in and walked into anice and cool air conditioned room. The amenities and staff were great and high speed internet was excellent. We were located on the second floor, but slept great not hearing anyone above or next to us. Nice stay for a business trip.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r172275598-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>172275598</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Don't Stay here!  Third floor is infested with Bed Bugs!!!  Past it on.</t>
+  </si>
+  <si>
+    <t>Do not stay here under any circumstances!  The third floor is infested with bed bugs.  I saw three rooms placed out of service for bed bug issues.  I even overheard another guest talking with his younger kids that were in visiting him.  One of the youngest, asked "Can we see the bed bugs Daddy?"  And he tried to quiet them down.  I am not on Facebook, or any of those sites, so if you see this, please pass it on.MoreShow less</t>
+  </si>
+  <si>
+    <t>gmcomfort_11, Front Office Manager at Quality Inn Denver Westminster, responded to this reviewResponded August 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2013</t>
+  </si>
+  <si>
+    <t>Do not stay here under any circumstances!  The third floor is infested with bed bugs.  I saw three rooms placed out of service for bed bug issues.  I even overheard another guest talking with his younger kids that were in visiting him.  One of the youngest, asked "Can we see the bed bugs Daddy?"  And he tried to quiet them down.  I am not on Facebook, or any of those sites, so if you see this, please pass it on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r168634292-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>168634292</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>not your best</t>
+  </si>
+  <si>
+    <t>This place is in need of a facelift and new comforters just to begin with. Staff was friendly and helpful, breakfast adequate. AC worked well in the second room I moved too, but was loud. I was above the pool and it was noisy on Sat. night--maybe a party going on??  ( not that I would have gone in the pool--yuck!)</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r164582970-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>164582970</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Fine stay with a clean room</t>
+  </si>
+  <si>
+    <t>The room is well equipped with refrigerator, microwave, Direct-tv service. The wi-fi works fine. The side closer to the highway is noisy from the traffic. The bed was too firm for me, but I am sure it was fine for other people. Staff was helpful. The parking lot is a bit small and it appears they have plenty of people staying here.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r163926351-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>163926351</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>Showing its age dirty inside not a good thing</t>
+  </si>
+  <si>
+    <t>This place is showing it's age, never mind they seem to be renovating some rooms or just replacing tile:  dirty halls food in the elevators, rank smells like a dirty diaper pale in the main hall next to the vending, not too appealing..  Forget getting customer service at night, hate to interrupt the front desk people standing right out front smoking , then coming in smelling like that. Furniture in the rooms looks out of place, markers were used on the tops of dressers etc...TV seems floor level also....If I would have know better, there are other places closer by corporate that have a better class of hotel...Not worth the $$$$$$...MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is showing it's age, never mind they seem to be renovating some rooms or just replacing tile:  dirty halls food in the elevators, rank smells like a dirty diaper pale in the main hall next to the vending, not too appealing..  Forget getting customer service at night, hate to interrupt the front desk people standing right out front smoking , then coming in smelling like that. Furniture in the rooms looks out of place, markers were used on the tops of dressers etc...TV seems floor level also....If I would have know better, there are other places closer by corporate that have a better class of hotel...Not worth the $$$$$$...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r162406336-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>162406336</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Ok for single night</t>
+  </si>
+  <si>
+    <t>Hotel what expected for price.  Could hear the conversation/tv in next room.  Easy to get to and easy access to major highway and shopping areas.  Breakfast typical continental style.  Was given handicapped accessible room (not requested) and did not have countertop in bathroom so that was inconvenient.  Staff friendly, was given late check out when requested with no problem.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r159920515-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>159920515</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Great, clean rooms with friendly staff.  Quiet!</t>
+  </si>
+  <si>
+    <t>Had a great time with an excellent breakfast.  The hottub didn't work on Sunday morning which was disappointed.  But the staff let me stay an extra hour in my room without a charge so I could write a school paper.  I will stay at this hotel again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>gmcomfort_11, General Manager at Quality Inn Denver Westminster, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Had a great time with an excellent breakfast.  The hottub didn't work on Sunday morning which was disappointed.  But the staff let me stay an extra hour in my room without a charge so I could write a school paper.  I will stay at this hotel again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r159790373-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>159790373</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Rest, Relax, and Enjoy Colorado</t>
+  </si>
+  <si>
+    <t>From the moment we checked in, everything was excellant.  Linda at check in very helpful.  Room spacious and very clean.  We stayed for more than one night and were impressed with the housekeeping service when we returned from a mountain hike.  Conveniently located for access to everything.  Would not hesitate to recommend this hotel to anyone.  Kids enjoyed the indoor pool, which is heated. Breakfast changes daily so when staying more than one night you are not stuck looking at the same breakfast.  Thanks to the management and staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>gmcomfort_11, General Manager at Quality Inn Denver Westminster, responded to this reviewResponded May 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2013</t>
+  </si>
+  <si>
+    <t>From the moment we checked in, everything was excellant.  Linda at check in very helpful.  Room spacious and very clean.  We stayed for more than one night and were impressed with the housekeeping service when we returned from a mountain hike.  Conveniently located for access to everything.  Would not hesitate to recommend this hotel to anyone.  Kids enjoyed the indoor pool, which is heated. Breakfast changes daily so when staying more than one night you are not stuck looking at the same breakfast.  Thanks to the management and staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r159543256-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>159543256</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Worst hotel and customer service EVER</t>
+  </si>
+  <si>
+    <t>As me and my family checked in we had a horriblr encounter with brian the gm he wss rude and made horrible comments toward my family when we got to the room we found dried food and a dead mouse yes mouse under the table when I asked brian to move us he statef we booked with expedia we can't help you and lefted the hotel... do not stay at this hotel very very badMoreShow less</t>
+  </si>
+  <si>
+    <t>As me and my family checked in we had a horriblr encounter with brian the gm he wss rude and made horrible comments toward my family when we got to the room we found dried food and a dead mouse yes mouse under the table when I asked brian to move us he statef we booked with expedia we can't help you and lefted the hotel... do not stay at this hotel very very badMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r151163186-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>151163186</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>"Great stay for the money"</t>
+  </si>
+  <si>
+    <t>My wife and I were traveling on business 1/1/2013 and stayed for 3 nights.  This was a very clean hotel they had taken extra time to decorate the lobby very nice for Christmas and it smelled wonderful.  Staff was very nice and quick to take care of our request.Beds were comfortable and rates were very affordable for the area.This will be my new hotel to stay at when I travel to the area again.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r150792969-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>150792969</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>Comfort Inn a Great Value</t>
+  </si>
+  <si>
+    <t>Staff was very friendly, knowledgeable and helpful.  Breakfast was nice, too, with fresh bacon or sausage, and a waffle-making station.  We stayed here for 4 nights and were treated with respect and kindness.  All things considered, it's a great value for the money.  We would gladly stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r148978455-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>148978455</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel for the Money...</t>
+  </si>
+  <si>
+    <t>My wife and I were traveling through the Denver area and went to TripAdvisor to find a decent lower priced hotel in the area.  Comfort Inn in Westminster seemed to come up pretty good so we gave it a try.  To our most welcome surprise, it was just wonderful.  We got a great rate with our AAA card and were very comfortable.  The amenities were fine although a little dated.  Bed was comfortable and the breakfast was good.  The staff were really what helped make the place.  Very friendly and welcoming.  The property felt safe and non-threatening.  I recommend it for location, comfort, and peace of mind.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r136391390-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>136391390</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>OK for the price</t>
+  </si>
+  <si>
+    <t>The price was very good.  The room was fine.  But the security was lax, and the overall feel of the place was not up to Comfort Inn standards.  There were patrons sitting in the grass on the hotel grounds smoking pot and getting drunk.  Not the most secure feel.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r135889365-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>135889365</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Comfortable stay and a good price</t>
+  </si>
+  <si>
+    <t>We stayed here last week when we took the family to water world. The rooms were clean, beds were comfortable, and the breakfast was good (and free). The a/c in both rooms worked  great and kept us cool. The teenagers used the pool and had a good time. The staff was friendly and courteous. Overall we are all satisfied with the stay and will choose this hotel again when we come back to water world next year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r135428383-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>135428383</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Dirty, arrogant and discourteous.</t>
+  </si>
+  <si>
+    <t>We have stayed in over 25 Choice Hotels and reviewed over a dozen in the past 12 months. NEVER have I felt compelled to write such a bad report. A few reasons:  room smelled of smoke. It was non-smoking. The floors in the bathroom were filthy. The tub was nasty dirty. The manager was arrogant on phone and in person insisting in very patronizing communication nothing was wrong because "I just inspected.".  Dirty cleaning gloves on elevator. The halls smelled of disinfectant and close exams notion after our problem showed overall no attention to detail. Advice:  stay away!MoreShow less</t>
+  </si>
+  <si>
+    <t>gmcomfort_11, General Manager at Quality Inn Denver Westminster, responded to this reviewResponded July 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2012</t>
+  </si>
+  <si>
+    <t>We have stayed in over 25 Choice Hotels and reviewed over a dozen in the past 12 months. NEVER have I felt compelled to write such a bad report. A few reasons:  room smelled of smoke. It was non-smoking. The floors in the bathroom were filthy. The tub was nasty dirty. The manager was arrogant on phone and in person insisting in very patronizing communication nothing was wrong because "I just inspected.".  Dirty cleaning gloves on elevator. The halls smelled of disinfectant and close exams notion after our problem showed overall no attention to detail. Advice:  stay away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r134898321-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>134898321</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>Nice clean room but too close to elevator and its bells</t>
+  </si>
+  <si>
+    <t>This room is right next to the elevator  so its bells were  quite annoying. Also highway 36 is very noisy. Had to keep fan on to sleep Otherwise experience was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>gmcomfort_11, General Manager at Quality Inn Denver Westminster, responded to this reviewResponded July 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2012</t>
+  </si>
+  <si>
+    <t>This room is right next to the elevator  so its bells were  quite annoying. Also highway 36 is very noisy. Had to keep fan on to sleep Otherwise experience was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r134662978-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>134662978</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Friendly people and nice room</t>
+  </si>
+  <si>
+    <t>My mother and I stayed here for one night. However, the room had everything you would need for an extended stay. There was a small area with a sink, microwave, mini-fridge, and a few cabinets. Although this area was a bit dated, all of the appliances were in good condition and worked fine. The beds were comfortable, but I would advise bringing your own pillow since the ones provided were fairly small. Overall, the room and bathroom were very clean. I only have one small complaint, which is that I noticed trash behind the dresser indicating that area had been overlooked when cleaned. But, that didn't bother me too much since the rest of the room was so clean. The front desk clerks were all friendly and check in was quick and easy. I would recommend this hotel and plan to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>gmcomfort_11, Manager at Quality Inn Denver Westminster, responded to this reviewResponded July 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2012</t>
+  </si>
+  <si>
+    <t>My mother and I stayed here for one night. However, the room had everything you would need for an extended stay. There was a small area with a sink, microwave, mini-fridge, and a few cabinets. Although this area was a bit dated, all of the appliances were in good condition and worked fine. The beds were comfortable, but I would advise bringing your own pillow since the ones provided were fairly small. Overall, the room and bathroom were very clean. I only have one small complaint, which is that I noticed trash behind the dresser indicating that area had been overlooked when cleaned. But, that didn't bother me too much since the rest of the room was so clean. The front desk clerks were all friendly and check in was quick and easy. I would recommend this hotel and plan to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r134547367-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>134547367</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Enjoyable, cost effective stay...</t>
+  </si>
+  <si>
+    <t>Easy check-in, comfortable, compact, immaculate room with both microwave and refrigerator.  Enjoyed having the bathroom sink and vanity separate from tub, shower and toilet.  Breakfast was considerably good, although two of the three days were quite busy and had to wait a bit for a table.  Great selection of gourmet teas, staff constantly cleaned and replenished food.  Unbelievably inexpensive compared to other nearby hotels.  Personnel always pleasant and accommodating.  Would definitely stay again next year for our annual family visit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r132628189-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>132628189</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>After hours on the road this was like an Oasis</t>
+  </si>
+  <si>
+    <t>We spent an emotional time driving our middle son to his new home 14 hours away and when we got to the hotel we realized that we hadn't figured in the hour we lost along the way but the clerk was so helpful and kind.  Even though our room wasn't ready yet he found us another that was ready and we were able to check in early, at no extra cost to us I might add.  Our room was very clean, the beds comfortable, plenty of hot water, great water pressure and towels.  I stepped out to have a smoke and only then realized that there was a train running very close to the hotel, we never heard it from our room.  We were able to find several nice restaurants to choose from in a 5 mile radius.  The breakfast offered the next morning was very nice so we were on our way without having to stop for yet another meal.  Thank you Comfort Inn!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We spent an emotional time driving our middle son to his new home 14 hours away and when we got to the hotel we realized that we hadn't figured in the hour we lost along the way but the clerk was so helpful and kind.  Even though our room wasn't ready yet he found us another that was ready and we were able to check in early, at no extra cost to us I might add.  Our room was very clean, the beds comfortable, plenty of hot water, great water pressure and towels.  I stepped out to have a smoke and only then realized that there was a train running very close to the hotel, we never heard it from our room.  We were able to find several nice restaurants to choose from in a 5 mile radius.  The breakfast offered the next morning was very nice so we were on our way without having to stop for yet another meal.  Thank you Comfort Inn!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r131869445-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>131869445</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>nice, clean place to stay</t>
+  </si>
+  <si>
+    <t>We stayed with our young children on our way through Colorado.  Nice indoor pool.  Room was very clean but a little on the small side--cleanest hotel bathroom I've been in for awhile.  It was really odd having a bathroom sink and a kitchenette sink 2 feet apart, but I appreciated the working fridge and microwave!  Breakfast was very good with nice variety and staff was present the whole time we ate cleaning off tables and refilling the buffet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r128941525-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>128941525</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>I love This Hotel</t>
+  </si>
+  <si>
+    <t>Every time I stay here I am always pleased. The service is great. The hotel is always well kept and clean. The front desk is always very polite and kind to me. Which is very much appriciated. I have never had any problems staying at this hotel. I would rather stay here than anywhere else when I am in town. All in all I would deffinitly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r120236862-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>120236862</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Bikers Against Child Abuse</t>
+  </si>
+  <si>
+    <t>We had a Halloween Fundraiser at a nearby tavern. The staff offered to provide a shuttle to and from our fundraiser so we could have an evening with drinks and have a safe return back to the hotel at the end of the night. Felipe, the Front Desk Manager, went above and beyond to take care of all of our needs and make our stay pleasurable and memorable. I would recommend Comfort Inn Northwest to anyone wanting to feel like a valued guest. Again, my thanks to all the staff and for your support in the fight against child abuse!WizPresidentRocky Mountain ChapterBikers Qgainst Child Abuse</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r119902323-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>119902323</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>Very nice, but not perfect.</t>
+  </si>
+  <si>
+    <t>During a long drive, I chose this motel because its was far enough outside of Denver so I wouldn't get caught in the busy downtown scene.  It also wasn't too far from my next stop in Golden, CO the next day.  The motel is nice, but located off the beaten path.  I reserved the room several months in advance using the Comforts Inn website, I requested 2 (queen) beds.  When arriving my room I was supprised to find 1 bed, and a sofa (sofa-bed).  The front desk told me they had no "2 bed" rooms left, additionally, the front desk clerk told me that the Comfort Inn computer system holds rooms by sleeping spaces, not number of beds. It has a code name (something like a H2 room?, I don't remember the actual code), this room with one bed &amp; a sofa bed had the same code as a room with two queen beds.  I think that's a poor system.  I slept on the sofa-bed, but for $85.00 I would have liked a real bed. 
+In the morning, the manager took a little off the bill which left me feeling better about sleeping on the couch.  But getting it right the first time would have let me give them a 5-star rating.  The rest of the stay was fine.  Its a very nice property, quiet, and a well cared for motel.  The hot free breakfast was wonderful, something for everyone....During a long drive, I chose this motel because its was far enough outside of Denver so I wouldn't get caught in the busy downtown scene.  It also wasn't too far from my next stop in Golden, CO the next day.  The motel is nice, but located off the beaten path.  I reserved the room several months in advance using the Comforts Inn website, I requested 2 (queen) beds.  When arriving my room I was supprised to find 1 bed, and a sofa (sofa-bed).  The front desk told me they had no "2 bed" rooms left, additionally, the front desk clerk told me that the Comfort Inn computer system holds rooms by sleeping spaces, not number of beds. It has a code name (something like a H2 room?, I don't remember the actual code), this room with one bed &amp; a sofa bed had the same code as a room with two queen beds.  I think that's a poor system.  I slept on the sofa-bed, but for $85.00 I would have liked a real bed. In the morning, the manager took a little off the bill which left me feeling better about sleeping on the couch.  But getting it right the first time would have let me give them a 5-star rating.  The rest of the stay was fine.  Its a very nice property, quiet, and a well cared for motel.  The hot free breakfast was wonderful, something for everyone.Dispite my problem with they room that I reserved, I would recomend this motel to others, and I would stay here again when I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>During a long drive, I chose this motel because its was far enough outside of Denver so I wouldn't get caught in the busy downtown scene.  It also wasn't too far from my next stop in Golden, CO the next day.  The motel is nice, but located off the beaten path.  I reserved the room several months in advance using the Comforts Inn website, I requested 2 (queen) beds.  When arriving my room I was supprised to find 1 bed, and a sofa (sofa-bed).  The front desk told me they had no "2 bed" rooms left, additionally, the front desk clerk told me that the Comfort Inn computer system holds rooms by sleeping spaces, not number of beds. It has a code name (something like a H2 room?, I don't remember the actual code), this room with one bed &amp; a sofa bed had the same code as a room with two queen beds.  I think that's a poor system.  I slept on the sofa-bed, but for $85.00 I would have liked a real bed. 
+In the morning, the manager took a little off the bill which left me feeling better about sleeping on the couch.  But getting it right the first time would have let me give them a 5-star rating.  The rest of the stay was fine.  Its a very nice property, quiet, and a well cared for motel.  The hot free breakfast was wonderful, something for everyone....During a long drive, I chose this motel because its was far enough outside of Denver so I wouldn't get caught in the busy downtown scene.  It also wasn't too far from my next stop in Golden, CO the next day.  The motel is nice, but located off the beaten path.  I reserved the room several months in advance using the Comforts Inn website, I requested 2 (queen) beds.  When arriving my room I was supprised to find 1 bed, and a sofa (sofa-bed).  The front desk told me they had no "2 bed" rooms left, additionally, the front desk clerk told me that the Comfort Inn computer system holds rooms by sleeping spaces, not number of beds. It has a code name (something like a H2 room?, I don't remember the actual code), this room with one bed &amp; a sofa bed had the same code as a room with two queen beds.  I think that's a poor system.  I slept on the sofa-bed, but for $85.00 I would have liked a real bed. In the morning, the manager took a little off the bill which left me feeling better about sleeping on the couch.  But getting it right the first time would have let me give them a 5-star rating.  The rest of the stay was fine.  Its a very nice property, quiet, and a well cared for motel.  The hot free breakfast was wonderful, something for everyone.Dispite my problem with they room that I reserved, I would recomend this motel to others, and I would stay here again when I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r116643332-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>116643332</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>not bad, but not great</t>
+  </si>
+  <si>
+    <t>The staff were outstanding, the room was ok, the breakfast was good,</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r101452739-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>101452739</t>
+  </si>
+  <si>
+    <t>03/24/2011</t>
+  </si>
+  <si>
+    <t>Nice, beware of swim lessons in pool</t>
+  </si>
+  <si>
+    <t>They appear to be holding swim lessons in the pool afternoons/early evenings. Since I'm here on business (e.g., no kids) I didn't find out what would happen if I tried to use the pool. I intend to ask since I may be back with family. Very clean, maintenance above average for this age property. I have a room on the freeway side and the noise is minimal. The location is in the middle of a professional office building complex - so, after 5 or 6 PM the area is dead. Lots close by both shopping and dining. Fridge and micro in room as promised. Carpets are a bit worn, but don't appear dirty. Wireless requires almost constant re-log ins, a pain!  Breakfast is standard stuff, less cereal choices than normal. I would stay here again although the pool situation would be of concern if I wanted to use it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>gmcomfort_11, Manager at Quality Inn Denver Westminster, responded to this reviewResponded March 28, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2011</t>
+  </si>
+  <si>
+    <t>They appear to be holding swim lessons in the pool afternoons/early evenings. Since I'm here on business (e.g., no kids) I didn't find out what would happen if I tried to use the pool. I intend to ask since I may be back with family. Very clean, maintenance above average for this age property. I have a room on the freeway side and the noise is minimal. The location is in the middle of a professional office building complex - so, after 5 or 6 PM the area is dead. Lots close by both shopping and dining. Fridge and micro in room as promised. Carpets are a bit worn, but don't appear dirty. Wireless requires almost constant re-log ins, a pain!  Breakfast is standard stuff, less cereal choices than normal. I would stay here again although the pool situation would be of concern if I wanted to use it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r86658136-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>86658136</t>
+  </si>
+  <si>
+    <t>11/10/2010</t>
+  </si>
+  <si>
+    <t>great  place to stay</t>
+  </si>
+  <si>
+    <t>the staff was very friendly  and helpful. great waffles.  felt very safe and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>gmcomfort_11, Manager at Quality Inn Denver Westminster, responded to this reviewResponded March 24, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2011</t>
+  </si>
+  <si>
+    <t>the staff was very friendly  and helpful. great waffles.  felt very safe and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r86547926-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>86547926</t>
+  </si>
+  <si>
+    <t>11/09/2010</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Stayed here for three days, didn't have any trouble at all. Room was good. Breakfast was typical carb loaded breakfast. Tv had a bunch of channels. Felt safe the whole time, but that doesn't mean stop being aware of your surroundings. Perkins Pancake at the end of the street that I could walk during daylight.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r68966022-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>68966022</t>
+  </si>
+  <si>
+    <t>06/28/2010</t>
+  </si>
+  <si>
+    <t>NICE STAY.....</t>
+  </si>
+  <si>
+    <t>nice stay quieter if you stay in the back of hotel because it faces the freeway.free coffee and breakfast every morning.....</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r18256026-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>18256026</t>
+  </si>
+  <si>
+    <t>07/25/2008</t>
+  </si>
+  <si>
+    <t>Nice, Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>Good price.  Clean, comfortable room.  Close to Water World.  Minifridge, microwave, coffee pot.  Continental breakfast with fruit, waffles, boiled eggs, cereals, muffins, danishes, juice, &amp; coffee.  Friendly staff.  There were signs posted everywhere about not stealing their stuff though.  If you take towels, etc. you will be charged, so I'm guessing this is an issue with them.  Can't believe someone would carry off the TV!  We didn't use the indoor pool, but it looked clean.  Nothing smelled like smoke, which is a good sign.  Everything was very updated and clean.  Nice hotel for the price!</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r15786577-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>15786577</t>
+  </si>
+  <si>
+    <t>05/07/2008</t>
+  </si>
+  <si>
+    <t>Price is Right</t>
+  </si>
+  <si>
+    <t>The price was right, only about $76/night.  Pets are allowed which is not a plus in my opinion.  There is a continental breakfast which was not too bed - toast, bagels, waffles, boiled eggs, cereal and fruit.The elevator and hallways smelled of smoke.  The carpets needed to be cleaned or replaced, I'm not sure which and the bathroom floor could have been cleaned better.  There was hair in the corners.  Beds were nice, pillows large and uncomfortable.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d120065-r861931-Quality_Inn_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>861931</t>
+  </si>
+  <si>
+    <t>02/26/2003</t>
+  </si>
+  <si>
+    <t>great little hotel</t>
+  </si>
+  <si>
+    <t>Nice little hotel with no unpleasant surprises. I stay there often when traveling because its so reliable and low cost. Rooms are clean and staff is nice. Eating establishments are not really close, but a few miles away at the mall. I will continue to stay here as long as I travel to Denver. Price is usually less than $70.00</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2096,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2128,5305 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O37" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s">
+        <v>280</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J41" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" t="s">
+        <v>290</v>
+      </c>
+      <c r="L41" t="s">
+        <v>291</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" t="s">
+        <v>297</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>298</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>310</v>
+      </c>
+      <c r="O44" t="s">
+        <v>58</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>312</v>
+      </c>
+      <c r="J45" t="s">
+        <v>313</v>
+      </c>
+      <c r="K45" t="s">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s">
+        <v>315</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>316</v>
+      </c>
+      <c r="O45" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s">
+        <v>322</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K47" t="s">
+        <v>327</v>
+      </c>
+      <c r="L47" t="s">
+        <v>328</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>329</v>
+      </c>
+      <c r="O47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>335</v>
+      </c>
+      <c r="O48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>335</v>
+      </c>
+      <c r="O49" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>348</v>
+      </c>
+      <c r="O50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>86</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>360</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" t="s">
+        <v>363</v>
+      </c>
+      <c r="K53" t="s">
+        <v>111</v>
+      </c>
+      <c r="L53" t="s">
+        <v>364</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>365</v>
+      </c>
+      <c r="O53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>366</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>367</v>
+      </c>
+      <c r="J54" t="s">
+        <v>368</v>
+      </c>
+      <c r="K54" t="s">
+        <v>369</v>
+      </c>
+      <c r="L54" t="s">
+        <v>370</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>365</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>371</v>
+      </c>
+      <c r="X54" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>374</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>375</v>
+      </c>
+      <c r="J55" t="s">
+        <v>376</v>
+      </c>
+      <c r="K55" t="s">
+        <v>377</v>
+      </c>
+      <c r="L55" t="s">
+        <v>378</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>379</v>
+      </c>
+      <c r="O55" t="s">
+        <v>86</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>381</v>
+      </c>
+      <c r="J56" t="s">
+        <v>382</v>
+      </c>
+      <c r="K56" t="s">
+        <v>383</v>
+      </c>
+      <c r="L56" t="s">
+        <v>384</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>385</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57" t="s">
+        <v>388</v>
+      </c>
+      <c r="K57" t="s">
+        <v>389</v>
+      </c>
+      <c r="L57" t="s">
+        <v>390</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>385</v>
+      </c>
+      <c r="O57" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" t="s">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>397</v>
+      </c>
+      <c r="O58" t="s">
+        <v>100</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>398</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>399</v>
+      </c>
+      <c r="J59" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" t="s">
+        <v>401</v>
+      </c>
+      <c r="L59" t="s">
+        <v>402</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>397</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>403</v>
+      </c>
+      <c r="X59" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>406</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>407</v>
+      </c>
+      <c r="J60" t="s">
+        <v>408</v>
+      </c>
+      <c r="K60" t="s">
+        <v>409</v>
+      </c>
+      <c r="L60" t="s">
+        <v>410</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>397</v>
+      </c>
+      <c r="O60" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>411</v>
+      </c>
+      <c r="X60" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>414</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>415</v>
+      </c>
+      <c r="J61" t="s">
+        <v>416</v>
+      </c>
+      <c r="K61" t="s">
+        <v>417</v>
+      </c>
+      <c r="L61" t="s">
+        <v>418</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>403</v>
+      </c>
+      <c r="X61" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>420</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>421</v>
+      </c>
+      <c r="J62" t="s">
+        <v>422</v>
+      </c>
+      <c r="K62" t="s">
+        <v>423</v>
+      </c>
+      <c r="L62" t="s">
+        <v>424</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>425</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>427</v>
+      </c>
+      <c r="J63" t="s">
+        <v>428</v>
+      </c>
+      <c r="K63" t="s">
+        <v>429</v>
+      </c>
+      <c r="L63" t="s">
+        <v>430</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>425</v>
+      </c>
+      <c r="O63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>431</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>432</v>
+      </c>
+      <c r="J64" t="s">
+        <v>433</v>
+      </c>
+      <c r="K64" t="s">
+        <v>434</v>
+      </c>
+      <c r="L64" t="s">
+        <v>435</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>425</v>
+      </c>
+      <c r="O64" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>436</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>437</v>
+      </c>
+      <c r="J65" t="s">
+        <v>438</v>
+      </c>
+      <c r="K65" t="s">
+        <v>439</v>
+      </c>
+      <c r="L65" t="s">
+        <v>440</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>441</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" t="s">
+        <v>444</v>
+      </c>
+      <c r="K66" t="s">
+        <v>445</v>
+      </c>
+      <c r="L66" t="s">
+        <v>446</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>441</v>
+      </c>
+      <c r="O66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>447</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>448</v>
+      </c>
+      <c r="J67" t="s">
+        <v>449</v>
+      </c>
+      <c r="K67" t="s">
+        <v>450</v>
+      </c>
+      <c r="L67" t="s">
+        <v>451</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>452</v>
+      </c>
+      <c r="X67" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>455</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>456</v>
+      </c>
+      <c r="J68" t="s">
+        <v>457</v>
+      </c>
+      <c r="K68" t="s">
+        <v>458</v>
+      </c>
+      <c r="L68" t="s">
+        <v>459</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>460</v>
+      </c>
+      <c r="X68" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>463</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>464</v>
+      </c>
+      <c r="J69" t="s">
+        <v>465</v>
+      </c>
+      <c r="K69" t="s">
+        <v>466</v>
+      </c>
+      <c r="L69" t="s">
+        <v>467</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>468</v>
+      </c>
+      <c r="X69" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>471</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>472</v>
+      </c>
+      <c r="J70" t="s">
+        <v>473</v>
+      </c>
+      <c r="K70" t="s">
+        <v>474</v>
+      </c>
+      <c r="L70" t="s">
+        <v>475</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>441</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>476</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>477</v>
+      </c>
+      <c r="J71" t="s">
+        <v>478</v>
+      </c>
+      <c r="K71" t="s">
+        <v>479</v>
+      </c>
+      <c r="L71" t="s">
+        <v>480</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>481</v>
+      </c>
+      <c r="O71" t="s">
+        <v>86</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>483</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>484</v>
+      </c>
+      <c r="J72" t="s">
+        <v>485</v>
+      </c>
+      <c r="K72" t="s">
+        <v>486</v>
+      </c>
+      <c r="L72" t="s">
+        <v>487</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>481</v>
+      </c>
+      <c r="O72" t="s">
+        <v>86</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>488</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>489</v>
+      </c>
+      <c r="J73" t="s">
+        <v>490</v>
+      </c>
+      <c r="K73" t="s">
+        <v>491</v>
+      </c>
+      <c r="L73" t="s">
+        <v>492</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>493</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>494</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>495</v>
+      </c>
+      <c r="J74" t="s">
+        <v>496</v>
+      </c>
+      <c r="K74" t="s">
+        <v>497</v>
+      </c>
+      <c r="L74" t="s">
+        <v>498</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>499</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>500</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>501</v>
+      </c>
+      <c r="J75" t="s">
+        <v>502</v>
+      </c>
+      <c r="K75" t="s">
+        <v>503</v>
+      </c>
+      <c r="L75" t="s">
+        <v>504</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>505</v>
+      </c>
+      <c r="O75" t="s">
+        <v>86</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>507</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>508</v>
+      </c>
+      <c r="J76" t="s">
+        <v>509</v>
+      </c>
+      <c r="K76" t="s">
+        <v>510</v>
+      </c>
+      <c r="L76" t="s">
+        <v>511</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>512</v>
+      </c>
+      <c r="O76" t="s">
+        <v>86</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>513</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>514</v>
+      </c>
+      <c r="J77" t="s">
+        <v>515</v>
+      </c>
+      <c r="K77" t="s">
+        <v>516</v>
+      </c>
+      <c r="L77" t="s">
+        <v>517</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>518</v>
+      </c>
+      <c r="O77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>519</v>
+      </c>
+      <c r="X77" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>522</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>523</v>
+      </c>
+      <c r="J78" t="s">
+        <v>524</v>
+      </c>
+      <c r="K78" t="s">
+        <v>525</v>
+      </c>
+      <c r="L78" t="s">
+        <v>526</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>527</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>528</v>
+      </c>
+      <c r="X78" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>531</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>532</v>
+      </c>
+      <c r="J79" t="s">
+        <v>533</v>
+      </c>
+      <c r="K79" t="s">
+        <v>534</v>
+      </c>
+      <c r="L79" t="s">
+        <v>535</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>527</v>
+      </c>
+      <c r="O79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>536</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>537</v>
+      </c>
+      <c r="J80" t="s">
+        <v>538</v>
+      </c>
+      <c r="K80" t="s">
+        <v>539</v>
+      </c>
+      <c r="L80" t="s">
+        <v>540</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>541</v>
+      </c>
+      <c r="O80" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>542</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>543</v>
+      </c>
+      <c r="J81" t="s">
+        <v>544</v>
+      </c>
+      <c r="K81" t="s">
+        <v>545</v>
+      </c>
+      <c r="L81" t="s">
+        <v>546</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>547</v>
+      </c>
+      <c r="O81" t="s">
+        <v>86</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>548</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>549</v>
+      </c>
+      <c r="J82" t="s">
+        <v>550</v>
+      </c>
+      <c r="K82" t="s">
+        <v>551</v>
+      </c>
+      <c r="L82" t="s">
+        <v>552</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>553</v>
+      </c>
+      <c r="O82" t="s">
+        <v>86</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32413</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>554</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>555</v>
+      </c>
+      <c r="J83" t="s">
+        <v>556</v>
+      </c>
+      <c r="K83" t="s">
+        <v>557</v>
+      </c>
+      <c r="L83" t="s">
+        <v>558</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
